--- a/temp/repeticiones.xlsx
+++ b/temp/repeticiones.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF640E80-DBA5-4A8D-B4FA-AC090F056F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE08178-4FE9-4A04-8762-ACAEA83C0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16010" yWindow="0" windowWidth="16710" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="20550" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>1/2</t>
   </si>
@@ -79,16 +80,28 @@
   </si>
   <si>
     <t>triggers</t>
+  </si>
+  <si>
+    <t>v =</t>
+  </si>
+  <si>
+    <t>2e32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,10 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,16 +419,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -423,7 +442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -636,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -671,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -706,7 +725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -741,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -776,7 +795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -811,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -846,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -881,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -916,7 +935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -945,7 +964,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -975,7 +994,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
@@ -1005,7 +1024,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>5</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>3.6000000000000085</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>6</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>3.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7</v>
       </c>
@@ -1125,7 +1144,7 @@
         <v>3.5999999999999659</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8</v>
       </c>
@@ -1158,4 +1177,457 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A166AAA5-0E0C-4E8F-BB02-6F10001E0432}">
+  <dimension ref="B3:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="5.42578125" style="3"/>
+    <col min="16" max="16" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="5.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3+C3+D3+E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B4+C4+D4+E4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>B5+C5+D5+E5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f>B6+C6+D6+E6</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B7+C7+D7+E7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B8+C8+D8+E8</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>B9+C9+D9+E9</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <f>B10+C10+D10+E10</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B11+C11+D11+E11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B12+C12+D12+E12</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f>B13+C13+D13+E13</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <f>B14+C14+D14+E14</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f>B15+C15+D15+E15</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <f>B16+C16+D16+E16</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f>B17+C17+D17+E17</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <f>B18+C18+D18+E18</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/repeticiones.xlsx
+++ b/temp/repeticiones.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E86D3-21C7-4D42-BB17-83B44F5B2B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CAA68-2068-4F30-8DF0-184214BDAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13720" yWindow="0" windowWidth="16370" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2e9" sheetId="2" r:id="rId2"/>
     <sheet name="2e6" sheetId="3" r:id="rId3"/>
+    <sheet name="100Slaves" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>1/2</t>
   </si>
@@ -82,12 +83,31 @@
   <si>
     <t>triggers</t>
   </si>
+  <si>
+    <t>Combinaciones totales 2e36_18 -&gt;</t>
+  </si>
+  <si>
+    <t>Combinaciones totales 2e36_18_sin_inv -&gt;</t>
+  </si>
+  <si>
+    <t>Slave</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +117,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -132,8 +160,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1178,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A166AAA5-0E0C-4E8F-BB02-6F10001E0432}">
   <dimension ref="B3:S516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+    <sheetView topLeftCell="A385" workbookViewId="0">
       <selection activeCell="AX462" sqref="AX461:AX462"/>
     </sheetView>
   </sheetViews>
@@ -1263,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <f>SUM(B5:J5)</f>
+        <f t="shared" ref="L5:L68" si="1">SUM(B5:J5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="3">
@@ -1303,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3">
-        <f>SUM(B6:J6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6" s="3">
@@ -1344,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="3">
-        <f>SUM(B7:J7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S7" s="4"/>
@@ -1381,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="3">
-        <f>SUM(B8:J8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S8" s="4"/>
@@ -1418,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="3">
-        <f>SUM(B9:J9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S9" s="4"/>
@@ -1455,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="3">
-        <f>SUM(B10:J10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10" s="4"/>
@@ -1492,7 +1523,7 @@
         <v>32</v>
       </c>
       <c r="L11" s="3">
-        <f>SUM(B11:J11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="4"/>
@@ -1529,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="L12" s="3">
-        <f>SUM(B12:J12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S12" s="4"/>
@@ -1566,7 +1597,7 @@
         <v>128</v>
       </c>
       <c r="L13" s="3">
-        <f>SUM(B13:J13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S13" s="4"/>
@@ -1603,7 +1634,7 @@
         <v>256</v>
       </c>
       <c r="L14" s="3">
-        <f>SUM(B14:J14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="4"/>
@@ -1640,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <f>SUM(B15:J15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M15" s="3">
@@ -1681,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <f>SUM(B16:J16)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S16" s="4"/>
@@ -1718,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="L17" s="3">
-        <f>SUM(B17:J17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S17" s="4"/>
@@ -1755,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="3">
-        <f>SUM(B18:J18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S18" s="4"/>
@@ -1792,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="3">
-        <f>SUM(B19:J19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S19" s="4"/>
@@ -1829,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="3">
-        <f>SUM(B20:J20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S20" s="4"/>
@@ -1866,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="3">
-        <f>SUM(B21:J21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1902,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="3">
-        <f>SUM(B22:J22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1938,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="3">
-        <f>SUM(B23:J23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1974,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="L24" s="3">
-        <f>SUM(B24:J24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2010,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="3">
-        <f>SUM(B25:J25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2046,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="3">
-        <f>SUM(B26:J26)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2082,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="L27" s="3">
-        <f>SUM(B27:J27)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2118,7 +2149,7 @@
         <v>40</v>
       </c>
       <c r="L28" s="3">
-        <f>SUM(B28:J28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2154,7 +2185,7 @@
         <v>48</v>
       </c>
       <c r="L29" s="3">
-        <f>SUM(B29:J29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2190,7 +2221,7 @@
         <v>65</v>
       </c>
       <c r="L30" s="3">
-        <f>SUM(B30:J30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2226,7 +2257,7 @@
         <v>66</v>
       </c>
       <c r="L31" s="3">
-        <f>SUM(B31:J31)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2262,7 +2293,7 @@
         <v>68</v>
       </c>
       <c r="L32" s="3">
-        <f>SUM(B32:J32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2298,7 +2329,7 @@
         <v>72</v>
       </c>
       <c r="L33" s="3">
-        <f>SUM(B33:J33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2334,7 +2365,7 @@
         <v>80</v>
       </c>
       <c r="L34" s="3">
-        <f>SUM(B34:J34)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2370,7 +2401,7 @@
         <v>96</v>
       </c>
       <c r="L35" s="3">
-        <f>SUM(B35:J35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2406,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="L36" s="3">
-        <f>SUM(B36:J36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2442,7 +2473,7 @@
         <v>130</v>
       </c>
       <c r="L37" s="3">
-        <f>SUM(B37:J37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2478,7 +2509,7 @@
         <v>132</v>
       </c>
       <c r="L38" s="3">
-        <f>SUM(B38:J38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2514,7 +2545,7 @@
         <v>136</v>
       </c>
       <c r="L39" s="3">
-        <f>SUM(B39:J39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2550,7 +2581,7 @@
         <v>144</v>
       </c>
       <c r="L40" s="3">
-        <f>SUM(B40:J40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2586,7 +2617,7 @@
         <v>160</v>
       </c>
       <c r="L41" s="3">
-        <f>SUM(B41:J41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2622,7 +2653,7 @@
         <v>192</v>
       </c>
       <c r="L42" s="3">
-        <f>SUM(B42:J42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2658,7 +2689,7 @@
         <v>257</v>
       </c>
       <c r="L43" s="3">
-        <f>SUM(B43:J43)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2694,7 +2725,7 @@
         <v>258</v>
       </c>
       <c r="L44" s="3">
-        <f>SUM(B44:J44)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2730,7 +2761,7 @@
         <v>260</v>
       </c>
       <c r="L45" s="3">
-        <f>SUM(B45:J45)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2766,7 +2797,7 @@
         <v>264</v>
       </c>
       <c r="L46" s="3">
-        <f>SUM(B46:J46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2802,7 +2833,7 @@
         <v>272</v>
       </c>
       <c r="L47" s="3">
-        <f>SUM(B47:J47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2838,7 +2869,7 @@
         <v>288</v>
       </c>
       <c r="L48" s="3">
-        <f>SUM(B48:J48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2874,7 +2905,7 @@
         <v>320</v>
       </c>
       <c r="L49" s="3">
-        <f>SUM(B49:J49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2910,7 +2941,7 @@
         <v>384</v>
       </c>
       <c r="L50" s="3">
-        <f>SUM(B50:J50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2946,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="L51" s="3">
-        <f>SUM(B51:J51)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="M51" s="3">
@@ -2986,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="3">
-        <f>SUM(B52:J52)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3022,7 +3053,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="3">
-        <f>SUM(B53:J53)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3058,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="3">
-        <f>SUM(B54:J54)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3094,7 +3125,7 @@
         <v>19</v>
       </c>
       <c r="L55" s="3">
-        <f>SUM(B55:J55)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3130,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="L56" s="3">
-        <f>SUM(B56:J56)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3166,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="L57" s="3">
-        <f>SUM(B57:J57)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3202,7 +3233,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="3">
-        <f>SUM(B58:J58)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3238,7 +3269,7 @@
         <v>26</v>
       </c>
       <c r="L59" s="3">
-        <f>SUM(B59:J59)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3274,7 +3305,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="3">
-        <f>SUM(B60:J60)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3310,7 +3341,7 @@
         <v>35</v>
       </c>
       <c r="L61" s="3">
-        <f>SUM(B61:J61)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3346,7 +3377,7 @@
         <v>37</v>
       </c>
       <c r="L62" s="3">
-        <f>SUM(B62:J62)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3382,7 +3413,7 @@
         <v>38</v>
       </c>
       <c r="L63" s="3">
-        <f>SUM(B63:J63)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3418,7 +3449,7 @@
         <v>41</v>
       </c>
       <c r="L64" s="3">
-        <f>SUM(B64:J64)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3454,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="L65" s="3">
-        <f>SUM(B65:J65)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3490,7 +3521,7 @@
         <v>44</v>
       </c>
       <c r="L66" s="3">
-        <f>SUM(B66:J66)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3526,7 +3557,7 @@
         <v>49</v>
       </c>
       <c r="L67" s="3">
-        <f>SUM(B67:J67)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3562,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="L68" s="3">
-        <f>SUM(B68:J68)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3598,7 +3629,7 @@
         <v>52</v>
       </c>
       <c r="L69" s="3">
-        <f>SUM(B69:J69)</f>
+        <f t="shared" ref="L69:L132" si="2">SUM(B69:J69)</f>
         <v>3</v>
       </c>
     </row>
@@ -3634,7 +3665,7 @@
         <v>56</v>
       </c>
       <c r="L70" s="3">
-        <f>SUM(B70:J70)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3670,7 +3701,7 @@
         <v>67</v>
       </c>
       <c r="L71" s="3">
-        <f>SUM(B71:J71)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3706,7 +3737,7 @@
         <v>69</v>
       </c>
       <c r="L72" s="3">
-        <f>SUM(B72:J72)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3742,7 +3773,7 @@
         <v>70</v>
       </c>
       <c r="L73" s="3">
-        <f>SUM(B73:J73)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3778,7 +3809,7 @@
         <v>73</v>
       </c>
       <c r="L74" s="3">
-        <f>SUM(B74:J74)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3814,7 +3845,7 @@
         <v>74</v>
       </c>
       <c r="L75" s="3">
-        <f>SUM(B75:J75)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3850,7 +3881,7 @@
         <v>76</v>
       </c>
       <c r="L76" s="3">
-        <f>SUM(B76:J76)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3886,7 +3917,7 @@
         <v>81</v>
       </c>
       <c r="L77" s="3">
-        <f>SUM(B77:J77)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3922,7 +3953,7 @@
         <v>82</v>
       </c>
       <c r="L78" s="3">
-        <f>SUM(B78:J78)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3958,7 +3989,7 @@
         <v>84</v>
       </c>
       <c r="L79" s="3">
-        <f>SUM(B79:J79)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3994,7 +4025,7 @@
         <v>88</v>
       </c>
       <c r="L80" s="3">
-        <f>SUM(B80:J80)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4030,7 +4061,7 @@
         <v>97</v>
       </c>
       <c r="L81" s="3">
-        <f>SUM(B81:J81)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4066,7 +4097,7 @@
         <v>98</v>
       </c>
       <c r="L82" s="3">
-        <f>SUM(B82:J82)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4102,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <f>SUM(B83:J83)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4138,7 +4169,7 @@
         <v>104</v>
       </c>
       <c r="L84" s="3">
-        <f>SUM(B84:J84)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4174,7 +4205,7 @@
         <v>112</v>
       </c>
       <c r="L85" s="3">
-        <f>SUM(B85:J85)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4210,7 +4241,7 @@
         <v>131</v>
       </c>
       <c r="L86" s="3">
-        <f>SUM(B86:J86)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4246,7 +4277,7 @@
         <v>133</v>
       </c>
       <c r="L87" s="3">
-        <f>SUM(B87:J87)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4282,7 +4313,7 @@
         <v>134</v>
       </c>
       <c r="L88" s="3">
-        <f>SUM(B88:J88)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4318,7 +4349,7 @@
         <v>137</v>
       </c>
       <c r="L89" s="3">
-        <f>SUM(B89:J89)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4354,7 +4385,7 @@
         <v>138</v>
       </c>
       <c r="L90" s="3">
-        <f>SUM(B90:J90)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4390,7 +4421,7 @@
         <v>140</v>
       </c>
       <c r="L91" s="3">
-        <f>SUM(B91:J91)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4426,7 +4457,7 @@
         <v>145</v>
       </c>
       <c r="L92" s="3">
-        <f>SUM(B92:J92)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4462,7 +4493,7 @@
         <v>146</v>
       </c>
       <c r="L93" s="3">
-        <f>SUM(B93:J93)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4498,7 +4529,7 @@
         <v>148</v>
       </c>
       <c r="L94" s="3">
-        <f>SUM(B94:J94)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4534,7 +4565,7 @@
         <v>152</v>
       </c>
       <c r="L95" s="3">
-        <f>SUM(B95:J95)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4570,7 +4601,7 @@
         <v>161</v>
       </c>
       <c r="L96" s="3">
-        <f>SUM(B96:J96)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4606,7 +4637,7 @@
         <v>162</v>
       </c>
       <c r="L97" s="3">
-        <f>SUM(B97:J97)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4642,7 +4673,7 @@
         <v>164</v>
       </c>
       <c r="L98" s="3">
-        <f>SUM(B98:J98)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4678,7 +4709,7 @@
         <v>168</v>
       </c>
       <c r="L99" s="3">
-        <f>SUM(B99:J99)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4714,7 +4745,7 @@
         <v>176</v>
       </c>
       <c r="L100" s="3">
-        <f>SUM(B100:J100)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4750,7 +4781,7 @@
         <v>193</v>
       </c>
       <c r="L101" s="3">
-        <f>SUM(B101:J101)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4786,7 +4817,7 @@
         <v>194</v>
       </c>
       <c r="L102" s="3">
-        <f>SUM(B102:J102)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4822,7 +4853,7 @@
         <v>196</v>
       </c>
       <c r="L103" s="3">
-        <f>SUM(B103:J103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4858,7 +4889,7 @@
         <v>200</v>
       </c>
       <c r="L104" s="3">
-        <f>SUM(B104:J104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4894,7 +4925,7 @@
         <v>208</v>
       </c>
       <c r="L105" s="3">
-        <f>SUM(B105:J105)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4930,7 +4961,7 @@
         <v>224</v>
       </c>
       <c r="L106" s="3">
-        <f>SUM(B106:J106)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4966,7 +4997,7 @@
         <v>259</v>
       </c>
       <c r="L107" s="3">
-        <f>SUM(B107:J107)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5002,7 +5033,7 @@
         <v>261</v>
       </c>
       <c r="L108" s="3">
-        <f>SUM(B108:J108)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5038,7 +5069,7 @@
         <v>262</v>
       </c>
       <c r="L109" s="3">
-        <f>SUM(B109:J109)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5074,7 +5105,7 @@
         <v>265</v>
       </c>
       <c r="L110" s="3">
-        <f>SUM(B110:J110)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5110,7 +5141,7 @@
         <v>266</v>
       </c>
       <c r="L111" s="3">
-        <f>SUM(B111:J111)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5146,7 +5177,7 @@
         <v>268</v>
       </c>
       <c r="L112" s="3">
-        <f>SUM(B112:J112)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5182,7 +5213,7 @@
         <v>273</v>
       </c>
       <c r="L113" s="3">
-        <f>SUM(B113:J113)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5218,7 +5249,7 @@
         <v>274</v>
       </c>
       <c r="L114" s="3">
-        <f>SUM(B114:J114)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5254,7 +5285,7 @@
         <v>276</v>
       </c>
       <c r="L115" s="3">
-        <f>SUM(B115:J115)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5290,7 +5321,7 @@
         <v>280</v>
       </c>
       <c r="L116" s="3">
-        <f>SUM(B116:J116)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5326,7 +5357,7 @@
         <v>289</v>
       </c>
       <c r="L117" s="3">
-        <f>SUM(B117:J117)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5362,7 +5393,7 @@
         <v>290</v>
       </c>
       <c r="L118" s="3">
-        <f>SUM(B118:J118)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5398,7 +5429,7 @@
         <v>292</v>
       </c>
       <c r="L119" s="3">
-        <f>SUM(B119:J119)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5434,7 +5465,7 @@
         <v>296</v>
       </c>
       <c r="L120" s="3">
-        <f>SUM(B120:J120)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5470,7 +5501,7 @@
         <v>304</v>
       </c>
       <c r="L121" s="3">
-        <f>SUM(B121:J121)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5506,7 +5537,7 @@
         <v>321</v>
       </c>
       <c r="L122" s="3">
-        <f>SUM(B122:J122)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5542,7 +5573,7 @@
         <v>322</v>
       </c>
       <c r="L123" s="3">
-        <f>SUM(B123:J123)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5578,7 +5609,7 @@
         <v>324</v>
       </c>
       <c r="L124" s="3">
-        <f>SUM(B124:J124)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5614,7 +5645,7 @@
         <v>328</v>
       </c>
       <c r="L125" s="3">
-        <f>SUM(B125:J125)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5650,7 +5681,7 @@
         <v>336</v>
       </c>
       <c r="L126" s="3">
-        <f>SUM(B126:J126)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5686,7 +5717,7 @@
         <v>352</v>
       </c>
       <c r="L127" s="3">
-        <f>SUM(B127:J127)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5722,7 +5753,7 @@
         <v>385</v>
       </c>
       <c r="L128" s="3">
-        <f>SUM(B128:J128)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5758,7 +5789,7 @@
         <v>386</v>
       </c>
       <c r="L129" s="3">
-        <f>SUM(B129:J129)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5794,7 +5825,7 @@
         <v>388</v>
       </c>
       <c r="L130" s="3">
-        <f>SUM(B130:J130)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5830,7 +5861,7 @@
         <v>392</v>
       </c>
       <c r="L131" s="3">
-        <f>SUM(B131:J131)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5866,7 +5897,7 @@
         <v>400</v>
       </c>
       <c r="L132" s="3">
-        <f>SUM(B132:J132)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -5902,7 +5933,7 @@
         <v>416</v>
       </c>
       <c r="L133" s="3">
-        <f>SUM(B133:J133)</f>
+        <f t="shared" ref="L133:L196" si="3">SUM(B133:J133)</f>
         <v>3</v>
       </c>
     </row>
@@ -5938,7 +5969,7 @@
         <v>448</v>
       </c>
       <c r="L134" s="3">
-        <f>SUM(B134:J134)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5974,7 +6005,7 @@
         <v>15</v>
       </c>
       <c r="L135" s="3">
-        <f>SUM(B135:J135)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M135" s="3">
@@ -6014,7 +6045,7 @@
         <v>23</v>
       </c>
       <c r="L136" s="3">
-        <f>SUM(B136:J136)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6050,7 +6081,7 @@
         <v>27</v>
       </c>
       <c r="L137" s="3">
-        <f>SUM(B137:J137)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6086,7 +6117,7 @@
         <v>29</v>
       </c>
       <c r="L138" s="3">
-        <f>SUM(B138:J138)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6122,7 +6153,7 @@
         <v>30</v>
       </c>
       <c r="L139" s="3">
-        <f>SUM(B139:J139)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6158,7 +6189,7 @@
         <v>39</v>
       </c>
       <c r="L140" s="3">
-        <f>SUM(B140:J140)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6194,7 +6225,7 @@
         <v>43</v>
       </c>
       <c r="L141" s="3">
-        <f>SUM(B141:J141)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6230,7 +6261,7 @@
         <v>45</v>
       </c>
       <c r="L142" s="3">
-        <f>SUM(B142:J142)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6266,7 +6297,7 @@
         <v>46</v>
       </c>
       <c r="L143" s="3">
-        <f>SUM(B143:J143)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6302,7 +6333,7 @@
         <v>51</v>
       </c>
       <c r="L144" s="3">
-        <f>SUM(B144:J144)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6338,7 +6369,7 @@
         <v>53</v>
       </c>
       <c r="L145" s="3">
-        <f>SUM(B145:J145)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6374,7 +6405,7 @@
         <v>54</v>
       </c>
       <c r="L146" s="3">
-        <f>SUM(B146:J146)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6410,7 +6441,7 @@
         <v>57</v>
       </c>
       <c r="L147" s="3">
-        <f>SUM(B147:J147)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6446,7 +6477,7 @@
         <v>58</v>
       </c>
       <c r="L148" s="3">
-        <f>SUM(B148:J148)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6482,7 +6513,7 @@
         <v>60</v>
       </c>
       <c r="L149" s="3">
-        <f>SUM(B149:J149)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6518,7 +6549,7 @@
         <v>71</v>
       </c>
       <c r="L150" s="3">
-        <f>SUM(B150:J150)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6554,7 +6585,7 @@
         <v>75</v>
       </c>
       <c r="L151" s="3">
-        <f>SUM(B151:J151)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6590,7 +6621,7 @@
         <v>77</v>
       </c>
       <c r="L152" s="3">
-        <f>SUM(B152:J152)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6626,7 +6657,7 @@
         <v>78</v>
       </c>
       <c r="L153" s="3">
-        <f>SUM(B153:J153)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6662,7 +6693,7 @@
         <v>83</v>
       </c>
       <c r="L154" s="3">
-        <f>SUM(B154:J154)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6698,7 +6729,7 @@
         <v>85</v>
       </c>
       <c r="L155" s="3">
-        <f>SUM(B155:J155)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6734,7 +6765,7 @@
         <v>86</v>
       </c>
       <c r="L156" s="3">
-        <f>SUM(B156:J156)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6770,7 +6801,7 @@
         <v>89</v>
       </c>
       <c r="L157" s="3">
-        <f>SUM(B157:J157)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6806,7 +6837,7 @@
         <v>90</v>
       </c>
       <c r="L158" s="3">
-        <f>SUM(B158:J158)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6842,7 +6873,7 @@
         <v>92</v>
       </c>
       <c r="L159" s="3">
-        <f>SUM(B159:J159)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6878,7 +6909,7 @@
         <v>99</v>
       </c>
       <c r="L160" s="3">
-        <f>SUM(B160:J160)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6914,7 +6945,7 @@
         <v>101</v>
       </c>
       <c r="L161" s="3">
-        <f>SUM(B161:J161)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6950,7 +6981,7 @@
         <v>102</v>
       </c>
       <c r="L162" s="3">
-        <f>SUM(B162:J162)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6986,7 +7017,7 @@
         <v>105</v>
       </c>
       <c r="L163" s="3">
-        <f>SUM(B163:J163)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7022,7 +7053,7 @@
         <v>106</v>
       </c>
       <c r="L164" s="3">
-        <f>SUM(B164:J164)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7058,7 +7089,7 @@
         <v>108</v>
       </c>
       <c r="L165" s="3">
-        <f>SUM(B165:J165)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7094,7 +7125,7 @@
         <v>113</v>
       </c>
       <c r="L166" s="3">
-        <f>SUM(B166:J166)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7130,7 +7161,7 @@
         <v>114</v>
       </c>
       <c r="L167" s="3">
-        <f>SUM(B167:J167)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7166,7 +7197,7 @@
         <v>116</v>
       </c>
       <c r="L168" s="3">
-        <f>SUM(B168:J168)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7202,7 +7233,7 @@
         <v>120</v>
       </c>
       <c r="L169" s="3">
-        <f>SUM(B169:J169)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7238,7 +7269,7 @@
         <v>135</v>
       </c>
       <c r="L170" s="3">
-        <f>SUM(B170:J170)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7274,7 +7305,7 @@
         <v>139</v>
       </c>
       <c r="L171" s="3">
-        <f>SUM(B171:J171)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7310,7 +7341,7 @@
         <v>141</v>
       </c>
       <c r="L172" s="3">
-        <f>SUM(B172:J172)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7346,7 +7377,7 @@
         <v>142</v>
       </c>
       <c r="L173" s="3">
-        <f>SUM(B173:J173)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7382,7 +7413,7 @@
         <v>147</v>
       </c>
       <c r="L174" s="3">
-        <f>SUM(B174:J174)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7418,7 +7449,7 @@
         <v>149</v>
       </c>
       <c r="L175" s="3">
-        <f>SUM(B175:J175)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7454,7 +7485,7 @@
         <v>150</v>
       </c>
       <c r="L176" s="3">
-        <f>SUM(B176:J176)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7490,7 +7521,7 @@
         <v>153</v>
       </c>
       <c r="L177" s="3">
-        <f>SUM(B177:J177)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7526,7 +7557,7 @@
         <v>154</v>
       </c>
       <c r="L178" s="3">
-        <f>SUM(B178:J178)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7562,7 +7593,7 @@
         <v>156</v>
       </c>
       <c r="L179" s="3">
-        <f>SUM(B179:J179)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7598,7 +7629,7 @@
         <v>163</v>
       </c>
       <c r="L180" s="3">
-        <f>SUM(B180:J180)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7634,7 +7665,7 @@
         <v>165</v>
       </c>
       <c r="L181" s="3">
-        <f>SUM(B181:J181)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7670,7 +7701,7 @@
         <v>166</v>
       </c>
       <c r="L182" s="3">
-        <f>SUM(B182:J182)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7706,7 +7737,7 @@
         <v>169</v>
       </c>
       <c r="L183" s="3">
-        <f>SUM(B183:J183)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7742,7 +7773,7 @@
         <v>170</v>
       </c>
       <c r="L184" s="3">
-        <f>SUM(B184:J184)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7778,7 +7809,7 @@
         <v>172</v>
       </c>
       <c r="L185" s="3">
-        <f>SUM(B185:J185)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7814,7 +7845,7 @@
         <v>177</v>
       </c>
       <c r="L186" s="3">
-        <f>SUM(B186:J186)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7850,7 +7881,7 @@
         <v>178</v>
       </c>
       <c r="L187" s="3">
-        <f>SUM(B187:J187)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7886,7 +7917,7 @@
         <v>180</v>
       </c>
       <c r="L188" s="3">
-        <f>SUM(B188:J188)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7922,7 +7953,7 @@
         <v>184</v>
       </c>
       <c r="L189" s="3">
-        <f>SUM(B189:J189)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7958,7 +7989,7 @@
         <v>195</v>
       </c>
       <c r="L190" s="3">
-        <f>SUM(B190:J190)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7994,7 +8025,7 @@
         <v>197</v>
       </c>
       <c r="L191" s="3">
-        <f>SUM(B191:J191)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8030,7 +8061,7 @@
         <v>198</v>
       </c>
       <c r="L192" s="3">
-        <f>SUM(B192:J192)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8066,7 +8097,7 @@
         <v>201</v>
       </c>
       <c r="L193" s="3">
-        <f>SUM(B193:J193)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8102,7 +8133,7 @@
         <v>202</v>
       </c>
       <c r="L194" s="3">
-        <f>SUM(B194:J194)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8138,7 +8169,7 @@
         <v>204</v>
       </c>
       <c r="L195" s="3">
-        <f>SUM(B195:J195)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8174,7 +8205,7 @@
         <v>209</v>
       </c>
       <c r="L196" s="3">
-        <f>SUM(B196:J196)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -8210,7 +8241,7 @@
         <v>210</v>
       </c>
       <c r="L197" s="3">
-        <f>SUM(B197:J197)</f>
+        <f t="shared" ref="L197:L260" si="4">SUM(B197:J197)</f>
         <v>4</v>
       </c>
     </row>
@@ -8246,7 +8277,7 @@
         <v>212</v>
       </c>
       <c r="L198" s="3">
-        <f>SUM(B198:J198)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8282,7 +8313,7 @@
         <v>216</v>
       </c>
       <c r="L199" s="3">
-        <f>SUM(B199:J199)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8318,7 +8349,7 @@
         <v>225</v>
       </c>
       <c r="L200" s="3">
-        <f>SUM(B200:J200)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8354,7 +8385,7 @@
         <v>226</v>
       </c>
       <c r="L201" s="3">
-        <f>SUM(B201:J201)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8390,7 +8421,7 @@
         <v>228</v>
       </c>
       <c r="L202" s="3">
-        <f>SUM(B202:J202)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8426,7 +8457,7 @@
         <v>232</v>
       </c>
       <c r="L203" s="3">
-        <f>SUM(B203:J203)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8462,7 +8493,7 @@
         <v>240</v>
       </c>
       <c r="L204" s="3">
-        <f>SUM(B204:J204)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8498,7 +8529,7 @@
         <v>263</v>
       </c>
       <c r="L205" s="3">
-        <f>SUM(B205:J205)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8534,7 +8565,7 @@
         <v>267</v>
       </c>
       <c r="L206" s="3">
-        <f>SUM(B206:J206)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8570,7 +8601,7 @@
         <v>269</v>
       </c>
       <c r="L207" s="3">
-        <f>SUM(B207:J207)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8606,7 +8637,7 @@
         <v>270</v>
       </c>
       <c r="L208" s="3">
-        <f>SUM(B208:J208)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8642,7 +8673,7 @@
         <v>275</v>
       </c>
       <c r="L209" s="3">
-        <f>SUM(B209:J209)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8678,7 +8709,7 @@
         <v>277</v>
       </c>
       <c r="L210" s="3">
-        <f>SUM(B210:J210)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8714,7 +8745,7 @@
         <v>278</v>
       </c>
       <c r="L211" s="3">
-        <f>SUM(B211:J211)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8750,7 +8781,7 @@
         <v>281</v>
       </c>
       <c r="L212" s="3">
-        <f>SUM(B212:J212)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8786,7 +8817,7 @@
         <v>282</v>
       </c>
       <c r="L213" s="3">
-        <f>SUM(B213:J213)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8822,7 +8853,7 @@
         <v>284</v>
       </c>
       <c r="L214" s="3">
-        <f>SUM(B214:J214)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8858,7 +8889,7 @@
         <v>291</v>
       </c>
       <c r="L215" s="3">
-        <f>SUM(B215:J215)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8894,7 +8925,7 @@
         <v>293</v>
       </c>
       <c r="L216" s="3">
-        <f>SUM(B216:J216)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8930,7 +8961,7 @@
         <v>294</v>
       </c>
       <c r="L217" s="3">
-        <f>SUM(B217:J217)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8966,7 +8997,7 @@
         <v>297</v>
       </c>
       <c r="L218" s="3">
-        <f>SUM(B218:J218)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9002,7 +9033,7 @@
         <v>298</v>
       </c>
       <c r="L219" s="3">
-        <f>SUM(B219:J219)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9038,7 +9069,7 @@
         <v>300</v>
       </c>
       <c r="L220" s="3">
-        <f>SUM(B220:J220)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9074,7 +9105,7 @@
         <v>305</v>
       </c>
       <c r="L221" s="3">
-        <f>SUM(B221:J221)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9110,7 +9141,7 @@
         <v>306</v>
       </c>
       <c r="L222" s="3">
-        <f>SUM(B222:J222)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9146,7 +9177,7 @@
         <v>308</v>
       </c>
       <c r="L223" s="3">
-        <f>SUM(B223:J223)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9182,7 +9213,7 @@
         <v>312</v>
       </c>
       <c r="L224" s="3">
-        <f>SUM(B224:J224)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9218,7 +9249,7 @@
         <v>323</v>
       </c>
       <c r="L225" s="3">
-        <f>SUM(B225:J225)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9254,7 +9285,7 @@
         <v>325</v>
       </c>
       <c r="L226" s="3">
-        <f>SUM(B226:J226)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9290,7 +9321,7 @@
         <v>326</v>
       </c>
       <c r="L227" s="3">
-        <f>SUM(B227:J227)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9326,7 +9357,7 @@
         <v>329</v>
       </c>
       <c r="L228" s="3">
-        <f>SUM(B228:J228)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9362,7 +9393,7 @@
         <v>330</v>
       </c>
       <c r="L229" s="3">
-        <f>SUM(B229:J229)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9398,7 +9429,7 @@
         <v>332</v>
       </c>
       <c r="L230" s="3">
-        <f>SUM(B230:J230)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9434,7 +9465,7 @@
         <v>337</v>
       </c>
       <c r="L231" s="3">
-        <f>SUM(B231:J231)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9470,7 +9501,7 @@
         <v>338</v>
       </c>
       <c r="L232" s="3">
-        <f>SUM(B232:J232)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9506,7 +9537,7 @@
         <v>340</v>
       </c>
       <c r="L233" s="3">
-        <f>SUM(B233:J233)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9542,7 +9573,7 @@
         <v>344</v>
       </c>
       <c r="L234" s="3">
-        <f>SUM(B234:J234)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9578,7 +9609,7 @@
         <v>353</v>
       </c>
       <c r="L235" s="3">
-        <f>SUM(B235:J235)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9614,7 +9645,7 @@
         <v>354</v>
       </c>
       <c r="L236" s="3">
-        <f>SUM(B236:J236)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9650,7 +9681,7 @@
         <v>356</v>
       </c>
       <c r="L237" s="3">
-        <f>SUM(B237:J237)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9686,7 +9717,7 @@
         <v>360</v>
       </c>
       <c r="L238" s="3">
-        <f>SUM(B238:J238)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9722,7 +9753,7 @@
         <v>368</v>
       </c>
       <c r="L239" s="3">
-        <f>SUM(B239:J239)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9758,7 +9789,7 @@
         <v>387</v>
       </c>
       <c r="L240" s="3">
-        <f>SUM(B240:J240)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9794,7 +9825,7 @@
         <v>389</v>
       </c>
       <c r="L241" s="3">
-        <f>SUM(B241:J241)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9830,7 +9861,7 @@
         <v>390</v>
       </c>
       <c r="L242" s="3">
-        <f>SUM(B242:J242)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9866,7 +9897,7 @@
         <v>393</v>
       </c>
       <c r="L243" s="3">
-        <f>SUM(B243:J243)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9902,7 +9933,7 @@
         <v>394</v>
       </c>
       <c r="L244" s="3">
-        <f>SUM(B244:J244)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9938,7 +9969,7 @@
         <v>396</v>
       </c>
       <c r="L245" s="3">
-        <f>SUM(B245:J245)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -9974,7 +10005,7 @@
         <v>401</v>
       </c>
       <c r="L246" s="3">
-        <f>SUM(B246:J246)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10010,7 +10041,7 @@
         <v>402</v>
       </c>
       <c r="L247" s="3">
-        <f>SUM(B247:J247)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10046,7 +10077,7 @@
         <v>404</v>
       </c>
       <c r="L248" s="3">
-        <f>SUM(B248:J248)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10082,7 +10113,7 @@
         <v>408</v>
       </c>
       <c r="L249" s="3">
-        <f>SUM(B249:J249)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10118,7 +10149,7 @@
         <v>417</v>
       </c>
       <c r="L250" s="3">
-        <f>SUM(B250:J250)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10154,7 +10185,7 @@
         <v>418</v>
       </c>
       <c r="L251" s="3">
-        <f>SUM(B251:J251)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10190,7 +10221,7 @@
         <v>420</v>
       </c>
       <c r="L252" s="3">
-        <f>SUM(B252:J252)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10226,7 +10257,7 @@
         <v>424</v>
       </c>
       <c r="L253" s="3">
-        <f>SUM(B253:J253)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10262,7 +10293,7 @@
         <v>432</v>
       </c>
       <c r="L254" s="3">
-        <f>SUM(B254:J254)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10298,7 +10329,7 @@
         <v>449</v>
       </c>
       <c r="L255" s="3">
-        <f>SUM(B255:J255)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10334,7 +10365,7 @@
         <v>450</v>
       </c>
       <c r="L256" s="3">
-        <f>SUM(B256:J256)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10370,7 +10401,7 @@
         <v>452</v>
       </c>
       <c r="L257" s="3">
-        <f>SUM(B257:J257)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10406,7 +10437,7 @@
         <v>456</v>
       </c>
       <c r="L258" s="3">
-        <f>SUM(B258:J258)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10442,7 +10473,7 @@
         <v>464</v>
       </c>
       <c r="L259" s="3">
-        <f>SUM(B259:J259)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10478,7 +10509,7 @@
         <v>480</v>
       </c>
       <c r="L260" s="3">
-        <f>SUM(B260:J260)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -10514,7 +10545,7 @@
         <v>31</v>
       </c>
       <c r="L261" s="3">
-        <f>SUM(B261:J261)</f>
+        <f t="shared" ref="L261:L324" si="5">SUM(B261:J261)</f>
         <v>5</v>
       </c>
       <c r="M261" s="3">
@@ -10554,7 +10585,7 @@
         <v>47</v>
       </c>
       <c r="L262" s="3">
-        <f>SUM(B262:J262)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10590,7 +10621,7 @@
         <v>55</v>
       </c>
       <c r="L263" s="3">
-        <f>SUM(B263:J263)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10626,7 +10657,7 @@
         <v>59</v>
       </c>
       <c r="L264" s="3">
-        <f>SUM(B264:J264)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10662,7 +10693,7 @@
         <v>61</v>
       </c>
       <c r="L265" s="3">
-        <f>SUM(B265:J265)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10698,7 +10729,7 @@
         <v>62</v>
       </c>
       <c r="L266" s="3">
-        <f>SUM(B266:J266)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10734,7 +10765,7 @@
         <v>79</v>
       </c>
       <c r="L267" s="3">
-        <f>SUM(B267:J267)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10770,7 +10801,7 @@
         <v>87</v>
       </c>
       <c r="L268" s="3">
-        <f>SUM(B268:J268)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10806,7 +10837,7 @@
         <v>91</v>
       </c>
       <c r="L269" s="3">
-        <f>SUM(B269:J269)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10842,7 +10873,7 @@
         <v>93</v>
       </c>
       <c r="L270" s="3">
-        <f>SUM(B270:J270)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10878,7 +10909,7 @@
         <v>94</v>
       </c>
       <c r="L271" s="3">
-        <f>SUM(B271:J271)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10914,7 +10945,7 @@
         <v>103</v>
       </c>
       <c r="L272" s="3">
-        <f>SUM(B272:J272)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10950,7 +10981,7 @@
         <v>107</v>
       </c>
       <c r="L273" s="3">
-        <f>SUM(B273:J273)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -10986,7 +11017,7 @@
         <v>109</v>
       </c>
       <c r="L274" s="3">
-        <f>SUM(B274:J274)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11022,7 +11053,7 @@
         <v>110</v>
       </c>
       <c r="L275" s="3">
-        <f>SUM(B275:J275)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11058,7 +11089,7 @@
         <v>115</v>
       </c>
       <c r="L276" s="3">
-        <f>SUM(B276:J276)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11094,7 +11125,7 @@
         <v>117</v>
       </c>
       <c r="L277" s="3">
-        <f>SUM(B277:J277)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11130,7 +11161,7 @@
         <v>118</v>
       </c>
       <c r="L278" s="3">
-        <f>SUM(B278:J278)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11166,7 +11197,7 @@
         <v>121</v>
       </c>
       <c r="L279" s="3">
-        <f>SUM(B279:J279)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11202,7 +11233,7 @@
         <v>122</v>
       </c>
       <c r="L280" s="3">
-        <f>SUM(B280:J280)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11238,7 +11269,7 @@
         <v>124</v>
       </c>
       <c r="L281" s="3">
-        <f>SUM(B281:J281)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11274,7 +11305,7 @@
         <v>143</v>
       </c>
       <c r="L282" s="3">
-        <f>SUM(B282:J282)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11310,7 +11341,7 @@
         <v>151</v>
       </c>
       <c r="L283" s="3">
-        <f>SUM(B283:J283)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11346,7 +11377,7 @@
         <v>155</v>
       </c>
       <c r="L284" s="3">
-        <f>SUM(B284:J284)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11382,7 +11413,7 @@
         <v>157</v>
       </c>
       <c r="L285" s="3">
-        <f>SUM(B285:J285)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11418,7 +11449,7 @@
         <v>158</v>
       </c>
       <c r="L286" s="3">
-        <f>SUM(B286:J286)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11454,7 +11485,7 @@
         <v>167</v>
       </c>
       <c r="L287" s="3">
-        <f>SUM(B287:J287)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11490,7 +11521,7 @@
         <v>171</v>
       </c>
       <c r="L288" s="3">
-        <f>SUM(B288:J288)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11526,7 +11557,7 @@
         <v>173</v>
       </c>
       <c r="L289" s="3">
-        <f>SUM(B289:J289)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11562,7 +11593,7 @@
         <v>174</v>
       </c>
       <c r="L290" s="3">
-        <f>SUM(B290:J290)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11598,7 +11629,7 @@
         <v>179</v>
       </c>
       <c r="L291" s="3">
-        <f>SUM(B291:J291)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11634,7 +11665,7 @@
         <v>181</v>
       </c>
       <c r="L292" s="3">
-        <f>SUM(B292:J292)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11670,7 +11701,7 @@
         <v>182</v>
       </c>
       <c r="L293" s="3">
-        <f>SUM(B293:J293)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11706,7 +11737,7 @@
         <v>185</v>
       </c>
       <c r="L294" s="3">
-        <f>SUM(B294:J294)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11742,7 +11773,7 @@
         <v>186</v>
       </c>
       <c r="L295" s="3">
-        <f>SUM(B295:J295)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11778,7 +11809,7 @@
         <v>188</v>
       </c>
       <c r="L296" s="3">
-        <f>SUM(B296:J296)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11814,7 +11845,7 @@
         <v>199</v>
       </c>
       <c r="L297" s="3">
-        <f>SUM(B297:J297)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11850,7 +11881,7 @@
         <v>203</v>
       </c>
       <c r="L298" s="3">
-        <f>SUM(B298:J298)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11886,7 +11917,7 @@
         <v>205</v>
       </c>
       <c r="L299" s="3">
-        <f>SUM(B299:J299)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11922,7 +11953,7 @@
         <v>206</v>
       </c>
       <c r="L300" s="3">
-        <f>SUM(B300:J300)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11958,7 +11989,7 @@
         <v>211</v>
       </c>
       <c r="L301" s="3">
-        <f>SUM(B301:J301)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -11994,7 +12025,7 @@
         <v>213</v>
       </c>
       <c r="L302" s="3">
-        <f>SUM(B302:J302)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12030,7 +12061,7 @@
         <v>214</v>
       </c>
       <c r="L303" s="3">
-        <f>SUM(B303:J303)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12066,7 +12097,7 @@
         <v>217</v>
       </c>
       <c r="L304" s="3">
-        <f>SUM(B304:J304)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12102,7 +12133,7 @@
         <v>218</v>
       </c>
       <c r="L305" s="3">
-        <f>SUM(B305:J305)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12138,7 +12169,7 @@
         <v>220</v>
       </c>
       <c r="L306" s="3">
-        <f>SUM(B306:J306)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12174,7 +12205,7 @@
         <v>227</v>
       </c>
       <c r="L307" s="3">
-        <f>SUM(B307:J307)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12210,7 +12241,7 @@
         <v>229</v>
       </c>
       <c r="L308" s="3">
-        <f>SUM(B308:J308)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12246,7 +12277,7 @@
         <v>230</v>
       </c>
       <c r="L309" s="3">
-        <f>SUM(B309:J309)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12282,7 +12313,7 @@
         <v>233</v>
       </c>
       <c r="L310" s="3">
-        <f>SUM(B310:J310)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12318,7 +12349,7 @@
         <v>234</v>
       </c>
       <c r="L311" s="3">
-        <f>SUM(B311:J311)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12354,7 +12385,7 @@
         <v>236</v>
       </c>
       <c r="L312" s="3">
-        <f>SUM(B312:J312)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12390,7 +12421,7 @@
         <v>241</v>
       </c>
       <c r="L313" s="3">
-        <f>SUM(B313:J313)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12426,7 +12457,7 @@
         <v>242</v>
       </c>
       <c r="L314" s="3">
-        <f>SUM(B314:J314)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12462,7 +12493,7 @@
         <v>244</v>
       </c>
       <c r="L315" s="3">
-        <f>SUM(B315:J315)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12498,7 +12529,7 @@
         <v>248</v>
       </c>
       <c r="L316" s="3">
-        <f>SUM(B316:J316)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12534,7 +12565,7 @@
         <v>271</v>
       </c>
       <c r="L317" s="3">
-        <f>SUM(B317:J317)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12570,7 +12601,7 @@
         <v>279</v>
       </c>
       <c r="L318" s="3">
-        <f>SUM(B318:J318)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12606,7 +12637,7 @@
         <v>283</v>
       </c>
       <c r="L319" s="3">
-        <f>SUM(B319:J319)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12642,7 +12673,7 @@
         <v>285</v>
       </c>
       <c r="L320" s="3">
-        <f>SUM(B320:J320)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12678,7 +12709,7 @@
         <v>286</v>
       </c>
       <c r="L321" s="3">
-        <f>SUM(B321:J321)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12714,7 +12745,7 @@
         <v>295</v>
       </c>
       <c r="L322" s="3">
-        <f>SUM(B322:J322)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12750,7 +12781,7 @@
         <v>299</v>
       </c>
       <c r="L323" s="3">
-        <f>SUM(B323:J323)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12786,7 +12817,7 @@
         <v>301</v>
       </c>
       <c r="L324" s="3">
-        <f>SUM(B324:J324)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12822,7 +12853,7 @@
         <v>302</v>
       </c>
       <c r="L325" s="3">
-        <f>SUM(B325:J325)</f>
+        <f t="shared" ref="L325:L388" si="6">SUM(B325:J325)</f>
         <v>5</v>
       </c>
     </row>
@@ -12858,7 +12889,7 @@
         <v>307</v>
       </c>
       <c r="L326" s="3">
-        <f>SUM(B326:J326)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -12894,7 +12925,7 @@
         <v>309</v>
       </c>
       <c r="L327" s="3">
-        <f>SUM(B327:J327)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -12930,7 +12961,7 @@
         <v>310</v>
       </c>
       <c r="L328" s="3">
-        <f>SUM(B328:J328)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -12966,7 +12997,7 @@
         <v>313</v>
       </c>
       <c r="L329" s="3">
-        <f>SUM(B329:J329)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13002,7 +13033,7 @@
         <v>314</v>
       </c>
       <c r="L330" s="3">
-        <f>SUM(B330:J330)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13038,7 +13069,7 @@
         <v>316</v>
       </c>
       <c r="L331" s="3">
-        <f>SUM(B331:J331)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13074,7 +13105,7 @@
         <v>327</v>
       </c>
       <c r="L332" s="3">
-        <f>SUM(B332:J332)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13110,7 +13141,7 @@
         <v>331</v>
       </c>
       <c r="L333" s="3">
-        <f>SUM(B333:J333)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13146,7 +13177,7 @@
         <v>333</v>
       </c>
       <c r="L334" s="3">
-        <f>SUM(B334:J334)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13182,7 +13213,7 @@
         <v>334</v>
       </c>
       <c r="L335" s="3">
-        <f>SUM(B335:J335)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13218,7 +13249,7 @@
         <v>339</v>
       </c>
       <c r="L336" s="3">
-        <f>SUM(B336:J336)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13254,7 +13285,7 @@
         <v>341</v>
       </c>
       <c r="L337" s="3">
-        <f>SUM(B337:J337)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13290,7 +13321,7 @@
         <v>342</v>
       </c>
       <c r="L338" s="3">
-        <f>SUM(B338:J338)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13326,7 +13357,7 @@
         <v>345</v>
       </c>
       <c r="L339" s="3">
-        <f>SUM(B339:J339)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13362,7 +13393,7 @@
         <v>346</v>
       </c>
       <c r="L340" s="3">
-        <f>SUM(B340:J340)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13398,7 +13429,7 @@
         <v>348</v>
       </c>
       <c r="L341" s="3">
-        <f>SUM(B341:J341)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13434,7 +13465,7 @@
         <v>355</v>
       </c>
       <c r="L342" s="3">
-        <f>SUM(B342:J342)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13470,7 +13501,7 @@
         <v>357</v>
       </c>
       <c r="L343" s="3">
-        <f>SUM(B343:J343)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13506,7 +13537,7 @@
         <v>358</v>
       </c>
       <c r="L344" s="3">
-        <f>SUM(B344:J344)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13542,7 +13573,7 @@
         <v>361</v>
       </c>
       <c r="L345" s="3">
-        <f>SUM(B345:J345)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13578,7 +13609,7 @@
         <v>362</v>
       </c>
       <c r="L346" s="3">
-        <f>SUM(B346:J346)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13614,7 +13645,7 @@
         <v>364</v>
       </c>
       <c r="L347" s="3">
-        <f>SUM(B347:J347)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13650,7 +13681,7 @@
         <v>369</v>
       </c>
       <c r="L348" s="3">
-        <f>SUM(B348:J348)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13686,7 +13717,7 @@
         <v>370</v>
       </c>
       <c r="L349" s="3">
-        <f>SUM(B349:J349)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13722,7 +13753,7 @@
         <v>372</v>
       </c>
       <c r="L350" s="3">
-        <f>SUM(B350:J350)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13758,7 +13789,7 @@
         <v>376</v>
       </c>
       <c r="L351" s="3">
-        <f>SUM(B351:J351)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13794,7 +13825,7 @@
         <v>391</v>
       </c>
       <c r="L352" s="3">
-        <f>SUM(B352:J352)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13830,7 +13861,7 @@
         <v>395</v>
       </c>
       <c r="L353" s="3">
-        <f>SUM(B353:J353)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13866,7 +13897,7 @@
         <v>397</v>
       </c>
       <c r="L354" s="3">
-        <f>SUM(B354:J354)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13902,7 +13933,7 @@
         <v>398</v>
       </c>
       <c r="L355" s="3">
-        <f>SUM(B355:J355)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13938,7 +13969,7 @@
         <v>403</v>
       </c>
       <c r="L356" s="3">
-        <f>SUM(B356:J356)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -13974,7 +14005,7 @@
         <v>405</v>
       </c>
       <c r="L357" s="3">
-        <f>SUM(B357:J357)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14010,7 +14041,7 @@
         <v>406</v>
       </c>
       <c r="L358" s="3">
-        <f>SUM(B358:J358)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14046,7 +14077,7 @@
         <v>409</v>
       </c>
       <c r="L359" s="3">
-        <f>SUM(B359:J359)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14082,7 +14113,7 @@
         <v>410</v>
       </c>
       <c r="L360" s="3">
-        <f>SUM(B360:J360)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14118,7 +14149,7 @@
         <v>412</v>
       </c>
       <c r="L361" s="3">
-        <f>SUM(B361:J361)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14154,7 +14185,7 @@
         <v>419</v>
       </c>
       <c r="L362" s="3">
-        <f>SUM(B362:J362)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14190,7 +14221,7 @@
         <v>421</v>
       </c>
       <c r="L363" s="3">
-        <f>SUM(B363:J363)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14226,7 +14257,7 @@
         <v>422</v>
       </c>
       <c r="L364" s="3">
-        <f>SUM(B364:J364)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14262,7 +14293,7 @@
         <v>425</v>
       </c>
       <c r="L365" s="3">
-        <f>SUM(B365:J365)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14298,7 +14329,7 @@
         <v>426</v>
       </c>
       <c r="L366" s="3">
-        <f>SUM(B366:J366)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14334,7 +14365,7 @@
         <v>428</v>
       </c>
       <c r="L367" s="3">
-        <f>SUM(B367:J367)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14370,7 +14401,7 @@
         <v>433</v>
       </c>
       <c r="L368" s="3">
-        <f>SUM(B368:J368)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14406,7 +14437,7 @@
         <v>434</v>
       </c>
       <c r="L369" s="3">
-        <f>SUM(B369:J369)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14442,7 +14473,7 @@
         <v>436</v>
       </c>
       <c r="L370" s="3">
-        <f>SUM(B370:J370)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14478,7 +14509,7 @@
         <v>440</v>
       </c>
       <c r="L371" s="3">
-        <f>SUM(B371:J371)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14514,7 +14545,7 @@
         <v>451</v>
       </c>
       <c r="L372" s="3">
-        <f>SUM(B372:J372)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14550,7 +14581,7 @@
         <v>453</v>
       </c>
       <c r="L373" s="3">
-        <f>SUM(B373:J373)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14586,7 +14617,7 @@
         <v>454</v>
       </c>
       <c r="L374" s="3">
-        <f>SUM(B374:J374)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14622,7 +14653,7 @@
         <v>457</v>
       </c>
       <c r="L375" s="3">
-        <f>SUM(B375:J375)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14658,7 +14689,7 @@
         <v>458</v>
       </c>
       <c r="L376" s="3">
-        <f>SUM(B376:J376)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14694,7 +14725,7 @@
         <v>460</v>
       </c>
       <c r="L377" s="3">
-        <f>SUM(B377:J377)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14730,7 +14761,7 @@
         <v>465</v>
       </c>
       <c r="L378" s="3">
-        <f>SUM(B378:J378)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14766,7 +14797,7 @@
         <v>466</v>
       </c>
       <c r="L379" s="3">
-        <f>SUM(B379:J379)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14802,7 +14833,7 @@
         <v>468</v>
       </c>
       <c r="L380" s="3">
-        <f>SUM(B380:J380)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14838,7 +14869,7 @@
         <v>472</v>
       </c>
       <c r="L381" s="3">
-        <f>SUM(B381:J381)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14874,7 +14905,7 @@
         <v>481</v>
       </c>
       <c r="L382" s="3">
-        <f>SUM(B382:J382)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14910,7 +14941,7 @@
         <v>482</v>
       </c>
       <c r="L383" s="3">
-        <f>SUM(B383:J383)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14946,7 +14977,7 @@
         <v>484</v>
       </c>
       <c r="L384" s="3">
-        <f>SUM(B384:J384)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14982,7 +15013,7 @@
         <v>488</v>
       </c>
       <c r="L385" s="3">
-        <f>SUM(B385:J385)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -15018,7 +15049,7 @@
         <v>496</v>
       </c>
       <c r="L386" s="3">
-        <f>SUM(B386:J386)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -15054,7 +15085,7 @@
         <v>63</v>
       </c>
       <c r="L387" s="3">
-        <f>SUM(B387:J387)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="M387" s="3">
@@ -15094,7 +15125,7 @@
         <v>95</v>
       </c>
       <c r="L388" s="3">
-        <f>SUM(B388:J388)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -15130,7 +15161,7 @@
         <v>111</v>
       </c>
       <c r="L389" s="3">
-        <f>SUM(B389:J389)</f>
+        <f t="shared" ref="L389:L452" si="7">SUM(B389:J389)</f>
         <v>6</v>
       </c>
     </row>
@@ -15166,7 +15197,7 @@
         <v>119</v>
       </c>
       <c r="L390" s="3">
-        <f>SUM(B390:J390)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15202,7 +15233,7 @@
         <v>123</v>
       </c>
       <c r="L391" s="3">
-        <f>SUM(B391:J391)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15238,7 +15269,7 @@
         <v>125</v>
       </c>
       <c r="L392" s="3">
-        <f>SUM(B392:J392)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15274,7 +15305,7 @@
         <v>126</v>
       </c>
       <c r="L393" s="3">
-        <f>SUM(B393:J393)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15310,7 +15341,7 @@
         <v>159</v>
       </c>
       <c r="L394" s="3">
-        <f>SUM(B394:J394)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15346,7 +15377,7 @@
         <v>175</v>
       </c>
       <c r="L395" s="3">
-        <f>SUM(B395:J395)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15382,7 +15413,7 @@
         <v>183</v>
       </c>
       <c r="L396" s="3">
-        <f>SUM(B396:J396)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15418,7 +15449,7 @@
         <v>187</v>
       </c>
       <c r="L397" s="3">
-        <f>SUM(B397:J397)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15454,7 +15485,7 @@
         <v>189</v>
       </c>
       <c r="L398" s="3">
-        <f>SUM(B398:J398)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15490,7 +15521,7 @@
         <v>190</v>
       </c>
       <c r="L399" s="3">
-        <f>SUM(B399:J399)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15526,7 +15557,7 @@
         <v>207</v>
       </c>
       <c r="L400" s="3">
-        <f>SUM(B400:J400)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15562,7 +15593,7 @@
         <v>215</v>
       </c>
       <c r="L401" s="3">
-        <f>SUM(B401:J401)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15598,7 +15629,7 @@
         <v>219</v>
       </c>
       <c r="L402" s="3">
-        <f>SUM(B402:J402)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15634,7 +15665,7 @@
         <v>221</v>
       </c>
       <c r="L403" s="3">
-        <f>SUM(B403:J403)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15670,7 +15701,7 @@
         <v>222</v>
       </c>
       <c r="L404" s="3">
-        <f>SUM(B404:J404)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15706,7 +15737,7 @@
         <v>231</v>
       </c>
       <c r="L405" s="3">
-        <f>SUM(B405:J405)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15742,7 +15773,7 @@
         <v>235</v>
       </c>
       <c r="L406" s="3">
-        <f>SUM(B406:J406)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15778,7 +15809,7 @@
         <v>237</v>
       </c>
       <c r="L407" s="3">
-        <f>SUM(B407:J407)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15814,7 +15845,7 @@
         <v>238</v>
       </c>
       <c r="L408" s="3">
-        <f>SUM(B408:J408)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15850,7 +15881,7 @@
         <v>243</v>
       </c>
       <c r="L409" s="3">
-        <f>SUM(B409:J409)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15886,7 +15917,7 @@
         <v>245</v>
       </c>
       <c r="L410" s="3">
-        <f>SUM(B410:J410)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15922,7 +15953,7 @@
         <v>246</v>
       </c>
       <c r="L411" s="3">
-        <f>SUM(B411:J411)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15958,7 +15989,7 @@
         <v>249</v>
       </c>
       <c r="L412" s="3">
-        <f>SUM(B412:J412)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -15994,7 +16025,7 @@
         <v>250</v>
       </c>
       <c r="L413" s="3">
-        <f>SUM(B413:J413)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16030,7 +16061,7 @@
         <v>252</v>
       </c>
       <c r="L414" s="3">
-        <f>SUM(B414:J414)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16066,7 +16097,7 @@
         <v>287</v>
       </c>
       <c r="L415" s="3">
-        <f>SUM(B415:J415)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16102,7 +16133,7 @@
         <v>303</v>
       </c>
       <c r="L416" s="3">
-        <f>SUM(B416:J416)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16138,7 +16169,7 @@
         <v>311</v>
       </c>
       <c r="L417" s="3">
-        <f>SUM(B417:J417)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16174,7 +16205,7 @@
         <v>315</v>
       </c>
       <c r="L418" s="3">
-        <f>SUM(B418:J418)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16210,7 +16241,7 @@
         <v>317</v>
       </c>
       <c r="L419" s="3">
-        <f>SUM(B419:J419)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16246,7 +16277,7 @@
         <v>318</v>
       </c>
       <c r="L420" s="3">
-        <f>SUM(B420:J420)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16282,7 +16313,7 @@
         <v>335</v>
       </c>
       <c r="L421" s="3">
-        <f>SUM(B421:J421)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16318,7 +16349,7 @@
         <v>343</v>
       </c>
       <c r="L422" s="3">
-        <f>SUM(B422:J422)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16354,7 +16385,7 @@
         <v>347</v>
       </c>
       <c r="L423" s="3">
-        <f>SUM(B423:J423)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16390,7 +16421,7 @@
         <v>349</v>
       </c>
       <c r="L424" s="3">
-        <f>SUM(B424:J424)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16426,7 +16457,7 @@
         <v>350</v>
       </c>
       <c r="L425" s="3">
-        <f>SUM(B425:J425)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16462,7 +16493,7 @@
         <v>359</v>
       </c>
       <c r="L426" s="3">
-        <f>SUM(B426:J426)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16498,7 +16529,7 @@
         <v>363</v>
       </c>
       <c r="L427" s="3">
-        <f>SUM(B427:J427)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16534,7 +16565,7 @@
         <v>365</v>
       </c>
       <c r="L428" s="3">
-        <f>SUM(B428:J428)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16570,7 +16601,7 @@
         <v>366</v>
       </c>
       <c r="L429" s="3">
-        <f>SUM(B429:J429)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16606,7 +16637,7 @@
         <v>371</v>
       </c>
       <c r="L430" s="3">
-        <f>SUM(B430:J430)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16642,7 +16673,7 @@
         <v>373</v>
       </c>
       <c r="L431" s="3">
-        <f>SUM(B431:J431)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16678,7 +16709,7 @@
         <v>374</v>
       </c>
       <c r="L432" s="3">
-        <f>SUM(B432:J432)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16714,7 +16745,7 @@
         <v>377</v>
       </c>
       <c r="L433" s="3">
-        <f>SUM(B433:J433)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16750,7 +16781,7 @@
         <v>378</v>
       </c>
       <c r="L434" s="3">
-        <f>SUM(B434:J434)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16786,7 +16817,7 @@
         <v>380</v>
       </c>
       <c r="L435" s="3">
-        <f>SUM(B435:J435)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16822,7 +16853,7 @@
         <v>399</v>
       </c>
       <c r="L436" s="3">
-        <f>SUM(B436:J436)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16858,7 +16889,7 @@
         <v>407</v>
       </c>
       <c r="L437" s="3">
-        <f>SUM(B437:J437)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16894,7 +16925,7 @@
         <v>411</v>
       </c>
       <c r="L438" s="3">
-        <f>SUM(B438:J438)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16930,7 +16961,7 @@
         <v>413</v>
       </c>
       <c r="L439" s="3">
-        <f>SUM(B439:J439)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -16966,7 +16997,7 @@
         <v>414</v>
       </c>
       <c r="L440" s="3">
-        <f>SUM(B440:J440)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17002,7 +17033,7 @@
         <v>423</v>
       </c>
       <c r="L441" s="3">
-        <f>SUM(B441:J441)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17038,7 +17069,7 @@
         <v>427</v>
       </c>
       <c r="L442" s="3">
-        <f>SUM(B442:J442)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17074,7 +17105,7 @@
         <v>429</v>
       </c>
       <c r="L443" s="3">
-        <f>SUM(B443:J443)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17110,7 +17141,7 @@
         <v>430</v>
       </c>
       <c r="L444" s="3">
-        <f>SUM(B444:J444)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17146,7 +17177,7 @@
         <v>435</v>
       </c>
       <c r="L445" s="3">
-        <f>SUM(B445:J445)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17182,7 +17213,7 @@
         <v>437</v>
       </c>
       <c r="L446" s="3">
-        <f>SUM(B446:J446)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17218,7 +17249,7 @@
         <v>438</v>
       </c>
       <c r="L447" s="3">
-        <f>SUM(B447:J447)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17254,7 +17285,7 @@
         <v>441</v>
       </c>
       <c r="L448" s="3">
-        <f>SUM(B448:J448)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17290,7 +17321,7 @@
         <v>442</v>
       </c>
       <c r="L449" s="3">
-        <f>SUM(B449:J449)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17326,7 +17357,7 @@
         <v>444</v>
       </c>
       <c r="L450" s="3">
-        <f>SUM(B450:J450)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17362,7 +17393,7 @@
         <v>455</v>
       </c>
       <c r="L451" s="3">
-        <f>SUM(B451:J451)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17398,7 +17429,7 @@
         <v>459</v>
       </c>
       <c r="L452" s="3">
-        <f>SUM(B452:J452)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -17434,7 +17465,7 @@
         <v>461</v>
       </c>
       <c r="L453" s="3">
-        <f>SUM(B453:J453)</f>
+        <f t="shared" ref="L453:L516" si="8">SUM(B453:J453)</f>
         <v>6</v>
       </c>
     </row>
@@ -17470,7 +17501,7 @@
         <v>462</v>
       </c>
       <c r="L454" s="3">
-        <f>SUM(B454:J454)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17506,7 +17537,7 @@
         <v>467</v>
       </c>
       <c r="L455" s="3">
-        <f>SUM(B455:J455)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17542,7 +17573,7 @@
         <v>469</v>
       </c>
       <c r="L456" s="3">
-        <f>SUM(B456:J456)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17578,7 +17609,7 @@
         <v>470</v>
       </c>
       <c r="L457" s="3">
-        <f>SUM(B457:J457)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17614,7 +17645,7 @@
         <v>473</v>
       </c>
       <c r="L458" s="3">
-        <f>SUM(B458:J458)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17650,7 +17681,7 @@
         <v>474</v>
       </c>
       <c r="L459" s="3">
-        <f>SUM(B459:J459)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17686,7 +17717,7 @@
         <v>476</v>
       </c>
       <c r="L460" s="3">
-        <f>SUM(B460:J460)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17722,7 +17753,7 @@
         <v>483</v>
       </c>
       <c r="L461" s="3">
-        <f>SUM(B461:J461)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17758,7 +17789,7 @@
         <v>485</v>
       </c>
       <c r="L462" s="3">
-        <f>SUM(B462:J462)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17794,7 +17825,7 @@
         <v>486</v>
       </c>
       <c r="L463" s="3">
-        <f>SUM(B463:J463)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17830,7 +17861,7 @@
         <v>489</v>
       </c>
       <c r="L464" s="3">
-        <f>SUM(B464:J464)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17866,7 +17897,7 @@
         <v>490</v>
       </c>
       <c r="L465" s="3">
-        <f>SUM(B465:J465)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17902,7 +17933,7 @@
         <v>492</v>
       </c>
       <c r="L466" s="3">
-        <f>SUM(B466:J466)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17938,7 +17969,7 @@
         <v>497</v>
       </c>
       <c r="L467" s="3">
-        <f>SUM(B467:J467)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -17974,7 +18005,7 @@
         <v>498</v>
       </c>
       <c r="L468" s="3">
-        <f>SUM(B468:J468)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -18010,7 +18041,7 @@
         <v>500</v>
       </c>
       <c r="L469" s="3">
-        <f>SUM(B469:J469)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -18046,7 +18077,7 @@
         <v>504</v>
       </c>
       <c r="L470" s="3">
-        <f>SUM(B470:J470)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -18082,7 +18113,7 @@
         <v>127</v>
       </c>
       <c r="L471" s="3">
-        <f>SUM(B471:J471)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="M471" s="3">
@@ -18122,7 +18153,7 @@
         <v>191</v>
       </c>
       <c r="L472" s="3">
-        <f>SUM(B472:J472)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18158,7 +18189,7 @@
         <v>223</v>
       </c>
       <c r="L473" s="3">
-        <f>SUM(B473:J473)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18194,7 +18225,7 @@
         <v>239</v>
       </c>
       <c r="L474" s="3">
-        <f>SUM(B474:J474)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18230,7 +18261,7 @@
         <v>247</v>
       </c>
       <c r="L475" s="3">
-        <f>SUM(B475:J475)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18266,7 +18297,7 @@
         <v>251</v>
       </c>
       <c r="L476" s="3">
-        <f>SUM(B476:J476)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18302,7 +18333,7 @@
         <v>253</v>
       </c>
       <c r="L477" s="3">
-        <f>SUM(B477:J477)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18338,7 +18369,7 @@
         <v>254</v>
       </c>
       <c r="L478" s="3">
-        <f>SUM(B478:J478)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18374,7 +18405,7 @@
         <v>319</v>
       </c>
       <c r="L479" s="3">
-        <f>SUM(B479:J479)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18410,7 +18441,7 @@
         <v>351</v>
       </c>
       <c r="L480" s="3">
-        <f>SUM(B480:J480)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18446,7 +18477,7 @@
         <v>367</v>
       </c>
       <c r="L481" s="3">
-        <f>SUM(B481:J481)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18482,7 +18513,7 @@
         <v>375</v>
       </c>
       <c r="L482" s="3">
-        <f>SUM(B482:J482)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18518,7 +18549,7 @@
         <v>379</v>
       </c>
       <c r="L483" s="3">
-        <f>SUM(B483:J483)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18554,7 +18585,7 @@
         <v>381</v>
       </c>
       <c r="L484" s="3">
-        <f>SUM(B484:J484)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18590,7 +18621,7 @@
         <v>382</v>
       </c>
       <c r="L485" s="3">
-        <f>SUM(B485:J485)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18626,7 +18657,7 @@
         <v>415</v>
       </c>
       <c r="L486" s="3">
-        <f>SUM(B486:J486)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18662,7 +18693,7 @@
         <v>431</v>
       </c>
       <c r="L487" s="3">
-        <f>SUM(B487:J487)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18698,7 +18729,7 @@
         <v>439</v>
       </c>
       <c r="L488" s="3">
-        <f>SUM(B488:J488)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18734,7 +18765,7 @@
         <v>443</v>
       </c>
       <c r="L489" s="3">
-        <f>SUM(B489:J489)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18770,7 +18801,7 @@
         <v>445</v>
       </c>
       <c r="L490" s="3">
-        <f>SUM(B490:J490)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18806,7 +18837,7 @@
         <v>446</v>
       </c>
       <c r="L491" s="3">
-        <f>SUM(B491:J491)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18842,7 +18873,7 @@
         <v>463</v>
       </c>
       <c r="L492" s="3">
-        <f>SUM(B492:J492)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18878,7 +18909,7 @@
         <v>471</v>
       </c>
       <c r="L493" s="3">
-        <f>SUM(B493:J493)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18914,7 +18945,7 @@
         <v>475</v>
       </c>
       <c r="L494" s="3">
-        <f>SUM(B494:J494)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18950,7 +18981,7 @@
         <v>477</v>
       </c>
       <c r="L495" s="3">
-        <f>SUM(B495:J495)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -18986,7 +19017,7 @@
         <v>478</v>
       </c>
       <c r="L496" s="3">
-        <f>SUM(B496:J496)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19022,7 +19053,7 @@
         <v>487</v>
       </c>
       <c r="L497" s="3">
-        <f>SUM(B497:J497)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19058,7 +19089,7 @@
         <v>491</v>
       </c>
       <c r="L498" s="3">
-        <f>SUM(B498:J498)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19094,7 +19125,7 @@
         <v>493</v>
       </c>
       <c r="L499" s="3">
-        <f>SUM(B499:J499)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19130,7 +19161,7 @@
         <v>494</v>
       </c>
       <c r="L500" s="3">
-        <f>SUM(B500:J500)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19166,7 +19197,7 @@
         <v>499</v>
       </c>
       <c r="L501" s="3">
-        <f>SUM(B501:J501)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19202,7 +19233,7 @@
         <v>501</v>
       </c>
       <c r="L502" s="3">
-        <f>SUM(B502:J502)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19238,7 +19269,7 @@
         <v>502</v>
       </c>
       <c r="L503" s="3">
-        <f>SUM(B503:J503)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19274,7 +19305,7 @@
         <v>505</v>
       </c>
       <c r="L504" s="3">
-        <f>SUM(B504:J504)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19310,7 +19341,7 @@
         <v>506</v>
       </c>
       <c r="L505" s="3">
-        <f>SUM(B505:J505)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19346,7 +19377,7 @@
         <v>508</v>
       </c>
       <c r="L506" s="3">
-        <f>SUM(B506:J506)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -19382,7 +19413,7 @@
         <v>255</v>
       </c>
       <c r="L507" s="3">
-        <f>SUM(B507:J507)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="M507" s="3">
@@ -19422,7 +19453,7 @@
         <v>383</v>
       </c>
       <c r="L508" s="3">
-        <f>SUM(B508:J508)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19458,7 +19489,7 @@
         <v>447</v>
       </c>
       <c r="L509" s="3">
-        <f>SUM(B509:J509)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19494,7 +19525,7 @@
         <v>479</v>
       </c>
       <c r="L510" s="3">
-        <f>SUM(B510:J510)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19530,7 +19561,7 @@
         <v>495</v>
       </c>
       <c r="L511" s="3">
-        <f>SUM(B511:J511)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19566,7 +19597,7 @@
         <v>503</v>
       </c>
       <c r="L512" s="3">
-        <f>SUM(B512:J512)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19602,7 +19633,7 @@
         <v>507</v>
       </c>
       <c r="L513" s="3">
-        <f>SUM(B513:J513)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19638,7 +19669,7 @@
         <v>509</v>
       </c>
       <c r="L514" s="3">
-        <f>SUM(B514:J514)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19674,7 +19705,7 @@
         <v>510</v>
       </c>
       <c r="L515" s="3">
-        <f>SUM(B515:J515)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -19710,7 +19741,7 @@
         <v>511</v>
       </c>
       <c r="L516" s="3">
-        <f>SUM(B516:J516)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="M516" s="3">
@@ -21262,4 +21293,1366 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CF54CB-08CD-4F98-AEC8-AD2CBE497E4D}">
+  <dimension ref="A2:F110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9075135300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B4/2</f>
+        <v>4537567650</v>
+      </c>
+      <c r="C6" s="6">
+        <f>B6/100</f>
+        <v>45375676.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6">
+        <f>$C$6*B10</f>
+        <v>45375676.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <f>F10+1</f>
+        <v>45375677.5</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F40" si="0">$C$6*B11</f>
+        <v>90751353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D40" si="1">F11+1</f>
+        <v>90751354</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>136127029.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>136127030.5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>181502706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>181502707</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>226878382.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>226878383.5</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>272254059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>272254060</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>317629735.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>317629736.5</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>363005412</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>363005413</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>408381088.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>408381089.5</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>453756765</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>453756766</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>499132441.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>499132442.5</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>544508118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>544508119</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>589883794.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>589883795.5</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>635259471</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>635259472</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>680635147.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>680635148.5</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>726010824</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>726010825</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>771386500.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>771386501.5</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>816762177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>816762178</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>862137853.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>862137854.5</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>907513530</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>907513531</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>952889206.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="1"/>
+        <v>952889207.5</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>998264883</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>998264884</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>1043640559.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="1"/>
+        <v>1043640560.5</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>1089016236</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="1"/>
+        <v>1089016237</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
+        <v>1134391912.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
+        <v>1134391913.5</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
+        <v>1179767589</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
+        <v>1179767590</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="0"/>
+        <v>1225143265.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
+        <v>1225143266.5</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
+        <v>1270518942</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>1270518943</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
+        <v>1315894618.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>1315894619.5</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
+        <v>1361270295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>31</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>1361270296</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
+        <v>1406645971.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" ref="D41:D104" si="2">F40+1</f>
+        <v>1406645972.5</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" ref="F41:F104" si="3">$C$6*B41</f>
+        <v>1452021648</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="2"/>
+        <v>1452021649</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="3"/>
+        <v>1497397324.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="2"/>
+        <v>1497397325.5</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="3"/>
+        <v>1542773001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="2"/>
+        <v>1542773002</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="3"/>
+        <v>1588148677.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="2"/>
+        <v>1588148678.5</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="3"/>
+        <v>1633524354</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>37</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="2"/>
+        <v>1633524355</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="3"/>
+        <v>1678900030.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="2"/>
+        <v>1678900031.5</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="3"/>
+        <v>1724275707</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>39</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="2"/>
+        <v>1724275708</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="3"/>
+        <v>1769651383.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="2"/>
+        <v>1769651384.5</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="3"/>
+        <v>1815027060</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="2"/>
+        <v>1815027061</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="3"/>
+        <v>1860402736.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="2"/>
+        <v>1860402737.5</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="3"/>
+        <v>1905778413</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="2"/>
+        <v>1905778414</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="3"/>
+        <v>1951154089.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>44</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="2"/>
+        <v>1951154090.5</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="3"/>
+        <v>1996529766</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" si="2"/>
+        <v>1996529767</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="3"/>
+        <v>2041905442.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" si="2"/>
+        <v>2041905443.5</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="3"/>
+        <v>2087281119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>47</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" si="2"/>
+        <v>2087281120</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="3"/>
+        <v>2132656795.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>48</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="2"/>
+        <v>2132656796.5</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="3"/>
+        <v>2178032472</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="2"/>
+        <v>2178032473</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="3"/>
+        <v>2223408148.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="2"/>
+        <v>2223408149.5</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="3"/>
+        <v>2268783825</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>51</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" si="2"/>
+        <v>2268783826</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="3"/>
+        <v>2314159501.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>52</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="2"/>
+        <v>2314159502.5</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="3"/>
+        <v>2359535178</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>53</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="2"/>
+        <v>2359535179</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="3"/>
+        <v>2404910854.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>54</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="2"/>
+        <v>2404910855.5</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="3"/>
+        <v>2450286531</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>55</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="2"/>
+        <v>2450286532</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="3"/>
+        <v>2495662207.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>56</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="2"/>
+        <v>2495662208.5</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="3"/>
+        <v>2541037884</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>57</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="2"/>
+        <v>2541037885</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="3"/>
+        <v>2586413560.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>58</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="2"/>
+        <v>2586413561.5</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="3"/>
+        <v>2631789237</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>59</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="2"/>
+        <v>2631789238</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="3"/>
+        <v>2677164913.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>60</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="2"/>
+        <v>2677164914.5</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="3"/>
+        <v>2722540590</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>61</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="2"/>
+        <v>2722540591</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="3"/>
+        <v>2767916266.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>62</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="2"/>
+        <v>2767916267.5</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="3"/>
+        <v>2813291943</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>63</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" si="2"/>
+        <v>2813291944</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="3"/>
+        <v>2858667619.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>64</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" si="2"/>
+        <v>2858667620.5</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="3"/>
+        <v>2904043296</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>65</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" si="2"/>
+        <v>2904043297</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="3"/>
+        <v>2949418972.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>66</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" si="2"/>
+        <v>2949418973.5</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="3"/>
+        <v>2994794649</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>67</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" si="2"/>
+        <v>2994794650</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="3"/>
+        <v>3040170325.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>68</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" si="2"/>
+        <v>3040170326.5</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="3"/>
+        <v>3085546002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>69</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="2"/>
+        <v>3085546003</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="3"/>
+        <v>3130921678.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" si="2"/>
+        <v>3130921679.5</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="3"/>
+        <v>3176297355</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>71</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="2"/>
+        <v>3176297356</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="3"/>
+        <v>3221673031.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>72</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="2"/>
+        <v>3221673032.5</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="3"/>
+        <v>3267048708</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>73</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="2"/>
+        <v>3267048709</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="3"/>
+        <v>3312424384.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>74</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="2"/>
+        <v>3312424385.5</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="3"/>
+        <v>3357800061</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>75</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="2"/>
+        <v>3357800062</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="3"/>
+        <v>3403175737.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>76</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="2"/>
+        <v>3403175738.5</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="3"/>
+        <v>3448551414</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>77</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="2"/>
+        <v>3448551415</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="3"/>
+        <v>3493927090.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>78</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="2"/>
+        <v>3493927091.5</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="3"/>
+        <v>3539302767</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>79</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="2"/>
+        <v>3539302768</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="3"/>
+        <v>3584678443.5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>80</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="2"/>
+        <v>3584678444.5</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="3"/>
+        <v>3630054120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>81</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="2"/>
+        <v>3630054121</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="3"/>
+        <v>3675429796.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>82</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="2"/>
+        <v>3675429797.5</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="3"/>
+        <v>3720805473</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>83</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="2"/>
+        <v>3720805474</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="3"/>
+        <v>3766181149.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>84</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="2"/>
+        <v>3766181150.5</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="3"/>
+        <v>3811556826</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>85</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="2"/>
+        <v>3811556827</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="3"/>
+        <v>3856932502.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>86</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="2"/>
+        <v>3856932503.5</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="3"/>
+        <v>3902308179</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>87</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="2"/>
+        <v>3902308180</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="3"/>
+        <v>3947683855.5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>88</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="2"/>
+        <v>3947683856.5</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="3"/>
+        <v>3993059532</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>89</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="2"/>
+        <v>3993059533</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="3"/>
+        <v>4038435208.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>90</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="2"/>
+        <v>4038435209.5</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="3"/>
+        <v>4083810885</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>91</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="2"/>
+        <v>4083810886</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="3"/>
+        <v>4129186561.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>92</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="2"/>
+        <v>4129186562.5</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="3"/>
+        <v>4174562238</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>93</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="2"/>
+        <v>4174562239</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="3"/>
+        <v>4219937914.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>94</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="2"/>
+        <v>4219937915.5</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="3"/>
+        <v>4265313591</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>95</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="2"/>
+        <v>4265313592</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="3"/>
+        <v>4310689267.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>96</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" ref="D105:D110" si="4">F104+1</f>
+        <v>4310689268.5</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" ref="F105:F110" si="5">$C$6*B105</f>
+        <v>4356064944</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>97</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="4"/>
+        <v>4356064945</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="5"/>
+        <v>4401440620.5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>98</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="4"/>
+        <v>4401440621.5</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="5"/>
+        <v>4446816297</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>99</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="4"/>
+        <v>4446816298</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="5"/>
+        <v>4492191973.5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="4"/>
+        <v>4492191974.5</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="5"/>
+        <v>4537567650</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D110" s="6"/>
+      <c r="F110" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>